--- a/biology/Médecine/Phospholambane/Phospholambane.xlsx
+++ b/biology/Médecine/Phospholambane/Phospholambane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phospholambane est une protéine du muscle cardiaque qui permet la régulation du taux de Ca2+ cytoplasmique dans les cellules musculaires cardiaques. On peut le caractériser d'inhibiteur endogène de la pompe SERCA. Son gène est PLN situé sur le chromosome 6 humain
 </t>
@@ -511,11 +523,13 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un cardiomyocyte au repos, le phospholambane inhibe la pompe calcium (pompe SERCA pour Sarcoplasmic endoplasmic REticulum CAlcium pump)  qui permet l'entrée de Ca2+ dans le réticulum sarcoplasmique avec consommation d'ATP.
-Le phospholamban peut être phosphorylé par la PKA, ce qui le décroche de la pompe SERCA, qui peut alors pomper le Ca2+ du cytoplasme vers le réticulum sarcoplasmique. Un déficit en phospholambane améliore la contractilité cardiaque[5].
-Le phospholambane peut être influencé par des catécholamines. L'adrénaline, en activant la PKA, favorise l'absorption rapide du Ca2+ dans le réticulum sarcoplasmique en empruntant la voie décrite ci-dessus. Ce mécanisme participe à l'accélération du rythme cardiaque (effet chronotrope). La phosphorylation du phospholambane a un effet lusitrope positif important, permettant ainsi une relaxation plus rapide des cardiomyocytes[6].
+Le phospholamban peut être phosphorylé par la PKA, ce qui le décroche de la pompe SERCA, qui peut alors pomper le Ca2+ du cytoplasme vers le réticulum sarcoplasmique. Un déficit en phospholambane améliore la contractilité cardiaque.
+Le phospholambane peut être influencé par des catécholamines. L'adrénaline, en activant la PKA, favorise l'absorption rapide du Ca2+ dans le réticulum sarcoplasmique en empruntant la voie décrite ci-dessus. Ce mécanisme participe à l'accélération du rythme cardiaque (effet chronotrope). La phosphorylation du phospholambane a un effet lusitrope positif important, permettant ainsi une relaxation plus rapide des cardiomyocytes.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène est retrouvée dans des cas de cardiomyopathie dilatée et de dysplasie ventriculaire droite arythmogène[7], le phospholambane muté devenant un « super-inhibiteur » de la pompe calcique[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène est retrouvée dans des cas de cardiomyopathie dilatée et de dysplasie ventriculaire droite arythmogène, le phospholambane muté devenant un « super-inhibiteur » de la pompe calcique.
 </t>
         </is>
       </c>
